--- a/plan/excel/refine_精炼表.xlsx
+++ b/plan/excel/refine_精炼表.xlsx
@@ -73,6 +73,32 @@
           </rPr>
           <t xml:space="preserve">
 额外的伤害比</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+百分之</t>
         </r>
       </text>
     </comment>
@@ -157,6 +183,86 @@
         </r>
       </text>
     </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+百分之</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+失败不归</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>，只掉</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
@@ -181,7 +287,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="25">
   <si>
     <t>number</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -302,12 +408,44 @@
     <t>特级精炼等级</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>jl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prob</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功概率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗道具</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险费</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>insure</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +494,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -689,20 +833,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="4" width="7.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -721,8 +866,14 @@
       <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -741,8 +892,14 @@
       <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -761,8 +918,14 @@
       <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -781,8 +944,14 @@
       <c r="F4" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -801,8 +970,14 @@
       <c r="F5" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -821,8 +996,14 @@
       <c r="F6" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -841,8 +1022,14 @@
       <c r="F7" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
@@ -861,8 +1048,14 @@
       <c r="F8" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -881,8 +1074,14 @@
       <c r="F9" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -901,8 +1100,14 @@
       <c r="F10" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
@@ -921,8 +1126,14 @@
       <c r="F11" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="H11" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>8</v>
       </c>
@@ -941,8 +1152,14 @@
       <c r="F12" s="3">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>9</v>
       </c>
@@ -961,8 +1178,14 @@
       <c r="F13" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10</v>
       </c>
@@ -981,8 +1204,14 @@
       <c r="F14" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G14" s="2">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1001,8 +1230,14 @@
       <c r="F15" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G15" s="2">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1021,8 +1256,14 @@
       <c r="F16" s="3">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1041,8 +1282,14 @@
       <c r="F17" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G17" s="2">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1061,8 +1308,14 @@
       <c r="F18" s="3">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G18" s="3">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1081,8 +1334,14 @@
       <c r="F19" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G19" s="3">
+        <v>6</v>
+      </c>
+      <c r="H19" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1101,8 +1360,14 @@
       <c r="F20" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G20" s="2">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1121,8 +1386,14 @@
       <c r="F21" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G21" s="2">
+        <v>7</v>
+      </c>
+      <c r="H21" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1141,8 +1412,14 @@
       <c r="F22" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G22" s="2">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1161,8 +1438,14 @@
       <c r="F23" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G23" s="2">
+        <v>8</v>
+      </c>
+      <c r="H23" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1180,6 +1463,12 @@
       </c>
       <c r="F24" s="3">
         <v>29</v>
+      </c>
+      <c r="G24" s="3">
+        <v>9</v>
+      </c>
+      <c r="H24">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1192,11 +1481,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1204,9 +1493,10 @@
     <col min="1" max="1" width="11.375" customWidth="1"/>
     <col min="2" max="4" width="7.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
@@ -1225,8 +1515,17 @@
       <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1245,8 +1544,17 @@
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1265,8 +1573,17 @@
       <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1285,8 +1602,17 @@
       <c r="F4" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1305,8 +1631,17 @@
       <c r="F5" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>30</v>
+      </c>
+      <c r="I5" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1325,8 +1660,17 @@
       <c r="F6" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>29</v>
+      </c>
+      <c r="I6" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>3</v>
       </c>
@@ -1345,8 +1689,17 @@
       <c r="F7" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>28</v>
+      </c>
+      <c r="I7" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>4</v>
       </c>
@@ -1365,8 +1718,17 @@
       <c r="F8" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>27</v>
+      </c>
+      <c r="I8" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>5</v>
       </c>
@@ -1385,8 +1747,17 @@
       <c r="F9" s="3">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G9" s="2">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3">
+        <v>26</v>
+      </c>
+      <c r="I9" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>6</v>
       </c>
@@ -1405,8 +1776,17 @@
       <c r="F10" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>25</v>
+      </c>
+      <c r="I10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1425,8 +1805,17 @@
       <c r="F11" s="3">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G11" s="2">
+        <v>3</v>
+      </c>
+      <c r="H11" s="3">
+        <v>24</v>
+      </c>
+      <c r="I11" s="3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1445,8 +1834,17 @@
       <c r="F12" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G12" s="3">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3">
+        <v>23</v>
+      </c>
+      <c r="I12" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1465,8 +1863,17 @@
       <c r="F13" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G13" s="3">
+        <v>3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>22</v>
+      </c>
+      <c r="I13" s="3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1485,8 +1892,17 @@
       <c r="F14" s="3">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G14" s="2">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>21</v>
+      </c>
+      <c r="I14" s="3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1505,8 +1921,17 @@
       <c r="F15" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G15" s="2">
+        <v>4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>20</v>
+      </c>
+      <c r="I15" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1525,8 +1950,17 @@
       <c r="F16" s="3">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+      <c r="H16" s="3">
+        <v>19</v>
+      </c>
+      <c r="I16" s="3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1545,8 +1979,17 @@
       <c r="F17" s="3">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G17" s="2">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3">
+        <v>18</v>
+      </c>
+      <c r="I17" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>14</v>
       </c>
@@ -1565,8 +2008,17 @@
       <c r="F18" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G18" s="3">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3">
+        <v>17</v>
+      </c>
+      <c r="I18" s="3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>15</v>
       </c>
@@ -1585,8 +2037,17 @@
       <c r="F19" s="3">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G19" s="3">
+        <v>6</v>
+      </c>
+      <c r="H19" s="3">
+        <v>16</v>
+      </c>
+      <c r="I19" s="3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>16</v>
       </c>
@@ -1605,8 +2066,17 @@
       <c r="F20" s="3">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G20" s="2">
+        <v>6</v>
+      </c>
+      <c r="H20" s="3">
+        <v>15</v>
+      </c>
+      <c r="I20" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1625,8 +2095,17 @@
       <c r="F21" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G21" s="2">
+        <v>7</v>
+      </c>
+      <c r="H21" s="3">
+        <v>14</v>
+      </c>
+      <c r="I21" s="3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>18</v>
       </c>
@@ -1645,8 +2124,17 @@
       <c r="F22" s="3">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G22" s="2">
+        <v>7</v>
+      </c>
+      <c r="H22" s="3">
+        <v>13</v>
+      </c>
+      <c r="I22" s="3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>19</v>
       </c>
@@ -1665,8 +2153,17 @@
       <c r="F23" s="3">
         <v>46</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G23" s="2">
+        <v>8</v>
+      </c>
+      <c r="H23" s="3">
+        <v>12</v>
+      </c>
+      <c r="I23" s="3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>20</v>
       </c>
@@ -1684,6 +2181,15 @@
       </c>
       <c r="F24" s="3">
         <v>48</v>
+      </c>
+      <c r="G24" s="3">
+        <v>9</v>
+      </c>
+      <c r="H24" s="3">
+        <v>11</v>
+      </c>
+      <c r="I24" s="3">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/plan/excel/refine_精炼表.xlsx
+++ b/plan/excel/refine_精炼表.xlsx
@@ -180,6 +180,32 @@
           </rPr>
           <t xml:space="preserve">
 额外的伤害比</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+从下一级升级到本级所需要的道具数量</t>
         </r>
       </text>
     </comment>
@@ -1485,7 +1511,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/plan/excel/refine_精炼表.xlsx
+++ b/plan/excel/refine_精炼表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" showInkAnnotation="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="RefineNormal" sheetId="4" r:id="rId1"/>
@@ -212,55 +212,51 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
   <si>
     <t>number</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>jl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>精炼等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>特级精炼等级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>jl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>prob</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>number</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>成功概率</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>消耗道具</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>count</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>保险费</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>insure</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>属性</t>
@@ -273,7 +269,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -347,24 +343,21 @@
   <si>
     <t>0_0_115|2_0_48|3_0_21|4_0_15|5_0_29</t>
   </si>
+  <si>
+    <t>lv</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -383,14 +376,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -431,15 +424,15 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -746,79 +739,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B24"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -827,12 +820,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -841,12 +834,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -855,12 +848,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -869,12 +862,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -883,12 +876,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -897,12 +890,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -911,12 +904,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
         <v>3</v>
@@ -925,12 +918,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
@@ -939,12 +932,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
@@ -953,12 +946,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1">
         <v>4</v>
@@ -967,12 +960,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
@@ -981,12 +974,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
@@ -995,12 +988,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2">
         <v>5</v>
@@ -1009,12 +1002,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2">
         <v>6</v>
@@ -1023,12 +1016,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1">
         <v>6</v>
@@ -1037,12 +1030,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1">
         <v>7</v>
@@ -1051,12 +1044,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1">
         <v>7</v>
@@ -1065,12 +1058,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1">
         <v>8</v>
@@ -1079,12 +1072,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2">
         <v>9</v>
@@ -1094,7 +1087,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1105,92 +1098,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="46" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1202,12 +1195,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1219,12 +1212,12 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1236,12 +1229,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -1253,12 +1246,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -1270,12 +1263,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -1287,12 +1280,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <v>3</v>
@@ -1304,12 +1297,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
         <v>3</v>
@@ -1321,12 +1314,12 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>9</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2">
         <v>3</v>
@@ -1338,12 +1331,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>10</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1">
         <v>4</v>
@@ -1355,12 +1348,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>11</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1">
         <v>4</v>
@@ -1372,12 +1365,12 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>12</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
@@ -1389,12 +1382,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1">
         <v>5</v>
@@ -1406,12 +1399,12 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>14</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2">
         <v>5</v>
@@ -1423,12 +1416,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>15</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2">
         <v>6</v>
@@ -1440,12 +1433,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>16</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1">
         <v>6</v>
@@ -1457,12 +1450,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1">
         <v>7</v>
@@ -1474,12 +1467,12 @@
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>18</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1">
         <v>7</v>
@@ -1491,12 +1484,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>19</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1">
         <v>8</v>
@@ -1508,12 +1501,12 @@
         <v>230</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>20</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2">
         <v>9</v>
@@ -1526,7 +1519,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
